--- a/examples/dotnet/weatherit/src/weatherit.code.gen/wi.code.gen_WeatherIt_0001.1001.1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/wi.code.gen_WeatherIt_0001.1001.1001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69B63A-E5DC-FD42-BBDB-1F7ABAAE328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA0F191-398B-E647-89DD-BF8ED39EEDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29320" yWindow="29520" windowWidth="38660" windowHeight="28080" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="51880" yWindow="500" windowWidth="50520" windowHeight="57100" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>SystemCode</t>
   </si>
@@ -85,9 +85,6 @@
     <t>DataType</t>
   </si>
   <si>
-    <t>BaseClass</t>
-  </si>
-  <si>
     <t>HasController</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>HasMenuItem</t>
   </si>
   <si>
-    <t>IsNew</t>
-  </si>
-  <si>
     <t>70FA8C51-51EF-4888-900F-90E7E7429307</t>
   </si>
   <si>
@@ -122,6 +116,57 @@
   </si>
   <si>
     <t>DisplayFormatExpression</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TemperatureC</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Forecast Date</t>
+  </si>
+  <si>
+    <t>Temp. (C)</t>
+  </si>
+  <si>
+    <t>TemperatureF</t>
+  </si>
+  <si>
+    <t>Temp. (F)</t>
+  </si>
+  <si>
+    <t>.ToShortDateString()</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>DateOnly</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string?</t>
+  </si>
+  <si>
+    <t>IsGenerated</t>
+  </si>
+  <si>
+    <t>D423F881-F8D3-49AF-B0AB-FB165CD3EEF0</t>
+  </si>
+  <si>
+    <t>A52961FF-F206-4617-A428-4A005B4ECEF3</t>
+  </si>
+  <si>
+    <t>0B610CD0-3C9C-40B5-8B9C-E83DAA433540</t>
+  </si>
+  <si>
+    <t>9A2CB4EA-32D7-4542-9EB9-7A095728CE7E</t>
   </si>
 </sst>
 </file>
@@ -164,7 +209,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -192,45 +252,44 @@
     <tableColumn id="2" xr3:uid="{569CD82C-768B-A94C-99B2-217E0F561D0D}" name="SystemName"/>
     <tableColumn id="3" xr3:uid="{627CFD19-A4AD-F345-971E-1C4D17B2179A}" name="SystemNameFileNameFriendly"/>
     <tableColumn id="4" xr3:uid="{C661331B-653A-1D45-8AFF-EDFCC2ABD3D6}" name="SystemVersion"/>
-    <tableColumn id="5" xr3:uid="{81E172D1-74AA-AD4F-92A7-B2E92AB4C282}" name="SystemVersionPaddedFileNameFriendly" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{81E172D1-74AA-AD4F-92A7-B2E92AB4C282}" name="SystemVersionPaddedFileNameFriendly" dataDxfId="6">
       <calculatedColumnFormula>RIGHT("0000"&amp;SUBSTITUTE(Table1[[#This Row],[SystemVersion]],".","_"),14)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{656168BA-80A4-0642-A19F-B6590C1F251A}" name="SystemCodeRootPathEnvironmentVariable"/>
-    <tableColumn id="7" xr3:uid="{9C63E4A8-3ECD-7C41-9E4B-35C64E394A2C}" name="SystemVersionIsReady" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{9C63E4A8-3ECD-7C41-9E4B-35C64E394A2C}" name="SystemVersionIsReady" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}" name="Table2" displayName="Table2" ref="A1:I18" totalsRowShown="0">
-  <autoFilter ref="A1:I18" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}" name="Table2" displayName="Table2" ref="A1:G18" totalsRowShown="0">
+  <autoFilter ref="A1:G18" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4CE40CA5-4089-3B4C-9F08-43CA4E78D054}" name="Guid"/>
     <tableColumn id="2" xr3:uid="{43FB4C35-03E1-BE45-BEE7-55A8F1DFA246}" name="ModelCode"/>
     <tableColumn id="3" xr3:uid="{3373CDEC-03EF-3D49-963E-CD54A53A99CB}" name="ModelDisplayName"/>
     <tableColumn id="10" xr3:uid="{BC633840-3E4F-354E-B2AC-B11656C97753}" name="DisplayOrder"/>
-    <tableColumn id="5" xr3:uid="{FD0F1BE8-C670-2244-8E15-9F174591D889}" name="BaseClass"/>
-    <tableColumn id="6" xr3:uid="{FF7738F7-A82A-7943-B9AE-D21E4CB54309}" name="HasController"/>
-    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasView"/>
-    <tableColumn id="8" xr3:uid="{BFA87EF0-C90B-9E41-997B-99DE80611B6A}" name="HasMenuItem"/>
-    <tableColumn id="9" xr3:uid="{0A0C6BFD-E10F-5545-A4CA-A63860D81403}" name="IsNew"/>
+    <tableColumn id="6" xr3:uid="{FF7738F7-A82A-7943-B9AE-D21E4CB54309}" name="HasController" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasView" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{BFA87EF0-C90B-9E41-997B-99DE80611B6A}" name="HasMenuItem" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}" name="Table3" displayName="Table3" ref="A1:G29" totalsRowShown="0">
-  <autoFilter ref="A1:G29" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}" name="Table3" displayName="Table3" ref="A1:H30" totalsRowShown="0">
+  <autoFilter ref="A1:H30" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{49867AEE-3650-834A-A6E6-953F99CA316D}" name="Guid"/>
     <tableColumn id="2" xr3:uid="{369912E0-B3DC-2C41-A497-7E3AD02F507F}" name="ModelPropertyCode"/>
     <tableColumn id="3" xr3:uid="{2725CB06-A002-6541-A229-B76CB55197FC}" name="ModelCode"/>
-    <tableColumn id="5" xr3:uid="{6F6D3D1B-9D26-9842-A8FC-1A7B48EF4A10}" name="DisplayName"/>
+    <tableColumn id="5" xr3:uid="{6F6D3D1B-9D26-9842-A8FC-1A7B48EF4A10}" name="DisplayName" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{15A8045D-1C76-3D4F-8D3B-11D29FE79730}" name="DisplayOrder"/>
     <tableColumn id="7" xr3:uid="{EE317BF5-C23F-8A45-BECF-C84AF2E1F025}" name="DisplayFormatExpression"/>
-    <tableColumn id="8" xr3:uid="{30A1D08F-C46A-C24B-8CDB-E4941EE9DCC8}" name="DataType"/>
+    <tableColumn id="9" xr3:uid="{3D19CF32-2C08-8544-80E0-2FA4FBF0CA6B}" name="DataType"/>
+    <tableColumn id="10" xr3:uid="{34D8AAF0-F41D-0D49-85CF-D58B7E14AC0C}" name="IsGenerated" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA20F649-3214-1144-80E3-E9E5AF71D2AD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DD65C-CE5D-A047-93CF-4047A05BE8C4}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -620,52 +679,55 @@
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -678,47 +740,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB9C199-394C-7049-A96B-18089740CE91}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
